--- a/qintegrity_biblioteca.xlsx
+++ b/qintegrity_biblioteca.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,17 +693,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>c43e55df-2872-4646-8cda-1322a63a1405</t>
+          <t>279e21e6-89d9-4b9b-b4a7-b9291eaa7e29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>810TJ04 TALLER DE APLICACIONES JAVA - A.pdf</t>
+          <t>Nuevos conceptos en la determinación de la profundidad de dragado.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>c43e55df-2872-4646-8cda-1322a63a1405__810TJ04_TALLER_DE_APLICACIONES_JAVA_-_A__REVA.pdf</t>
+          <t>279e21e6-89d9-4b9b-b4a7-b9291eaa7e29__Nuevos_conceptos_en_la_determinación_de_la_profundidad_de_dragado__REVA.pdf</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -716,47 +716,43 @@
           <t>Movimiento de Tierra</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Vigente</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>46057.60810054703</v>
+        <v>46062.95282233676</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1fba0547e7c8504dd23c20ab02dec146a2809b2e67d2981d64ac3078914317a3</t>
+          <t>274f34bde00d03eef6edbda74f8947a676b15c4b12f98bc4c7efe6ea6974698b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>biblioteca_eett/c43e55df-2872-4646-8cda-1322a63a1405__810TJ04_TALLER_DE_APLICACIONES_JAVA_-_A__REVA.pdf</t>
+          <t>biblioteca_eett/279e21e6-89d9-4b9b-b4a7-b9291eaa7e29__Nuevos_conceptos_en_la_determinación_de_la_profundidad_de_dragado__REVA.pdf</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>370735</v>
+        <v>621195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3c72df72-18b6-4ba1-896c-132fd71847c4</t>
+          <t>42b5008c-d31f-4969-be00-47efb11732c7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clase-de-Repaso-Extendido[1].pdf</t>
+          <t>Transporte_eolico (1).pdf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3c72df72-18b6-4ba1-896c-132fd71847c4__Clase-de-Repaso-Extendido1__REVA.pdf</t>
+          <t>42b5008c-d31f-4969-be00-47efb11732c7__Transporte_eolico_1__REVA.pdf</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -769,31 +765,76 @@
           <t>Movimiento de Tierra</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Vigente</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>46057.61333858942</v>
+        <v>46062.95290360053</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8f15d5ad37bb244b29bba7196f14b31c84526682a67afa2bf5922cc63c22f68d</t>
+          <t>a4b55e1bb2f1cfaf63f7f56fd01ef6a1935dff17191446e1f7b43c40e991ec39</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>biblioteca_eett/3c72df72-18b6-4ba1-896c-132fd71847c4__Clase-de-Repaso-Extendido1__REVA.pdf</t>
+          <t>biblioteca_eett/42b5008c-d31f-4969-be00-47efb11732c7__Transporte_eolico_1__REVA.pdf</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>54899724</v>
+        <v>601296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>194c147b-4a32-49c5-8fda-3e0b8ba48218</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Construccion de elementos prefabricados de concreto.pdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>194c147b-4a32-49c5-8fda-3e0b8ba48218__Construccion_de_elementos_prefabricados_de_concreto__REVA.pdf</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Movimiento de Tierra</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vigente</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>46062.95297531345</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>75421bcfc503d00c94cb198adb0b8861bf6fa57799e8fa825b18825acd1e6340</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>biblioteca_eett/194c147b-4a32-49c5-8fda-3e0b8ba48218__Construccion_de_elementos_prefabricados_de_concreto__REVA.pdf</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>438693</v>
       </c>
     </row>
   </sheetData>
